--- a/pidis/expdata/10005.xlsx
+++ b/pidis/expdata/10005.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jethier/Documents/fitpack/database/pdis/expdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/pidis/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C36A93-A6AD-EF45-B4F1-46A1AC00E837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24060" windowHeight="15340" tabRatio="500"/>
+    <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
   <si>
     <t>Elab</t>
   </si>
@@ -47,12 +57,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>A1n(stat)_u</t>
-  </si>
-  <si>
-    <t>A1n(syst)_u</t>
-  </si>
-  <si>
     <t>col</t>
   </si>
   <si>
@@ -63,13 +67,25 @@
   </si>
   <si>
     <t>HERMES</t>
+  </si>
+  <si>
+    <t>stat_u</t>
+  </si>
+  <si>
+    <t>norm_c</t>
+  </si>
+  <si>
+    <t>syst</t>
+  </si>
+  <si>
+    <t>syst_c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -89,6 +105,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,9 +145,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -137,6 +159,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -404,19 +429,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="6" width="8.83203125" style="1"/>
+    <col min="9" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -436,17 +464,23 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>27.5</v>
       </c>
@@ -456,13 +490,13 @@
       <c r="C2" s="4">
         <v>1.22</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4">
         <v>-0.111</v>
       </c>
       <c r="G2" s="4">
@@ -471,11 +505,19 @@
       <c r="H2" s="4">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I2" s="4">
+        <f>F2*0.054</f>
+        <v>-5.9940000000000002E-3</v>
+      </c>
+      <c r="J2" s="4">
+        <f>MAX(H2^2-I2^2,0)^0.5</f>
+        <v>1.6972682875727101E-2</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>27.5</v>
       </c>
@@ -485,13 +527,13 @@
       <c r="C3" s="4">
         <v>1.47</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4">
         <v>-0.11700000000000001</v>
       </c>
       <c r="G3" s="4">
@@ -500,11 +542,19 @@
       <c r="H3" s="4">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I3" s="4">
+        <f t="shared" ref="I3:I10" si="0">F3*0.054</f>
+        <v>-6.3180000000000007E-3</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J10" si="1">MAX(H3^2-I3^2,0)^0.5</f>
+        <v>1.136146451827404E-2</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>27.5</v>
       </c>
@@ -514,13 +564,13 @@
       <c r="C4" s="4">
         <v>1.73</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4">
         <v>-7.6999999999999999E-2</v>
       </c>
       <c r="G4" s="4">
@@ -529,11 +579,19 @@
       <c r="H4" s="4">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I4" s="4">
+        <f t="shared" si="0"/>
+        <v>-4.1580000000000002E-3</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="1"/>
+        <v>1.0183861546584379E-2</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>27.5</v>
       </c>
@@ -543,13 +601,13 @@
       <c r="C5" s="4">
         <v>1.99</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="4">
         <v>-0.126</v>
       </c>
       <c r="G5" s="4">
@@ -558,11 +616,19 @@
       <c r="H5" s="4">
         <v>1.4E-2</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I5" s="4">
+        <f t="shared" si="0"/>
+        <v>-6.8040000000000002E-3</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="1"/>
+        <v>1.2235423327372047E-2</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>27.5</v>
       </c>
@@ -572,13 +638,13 @@
       <c r="C6" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="4">
         <v>-9.7000000000000003E-2</v>
       </c>
       <c r="G6" s="4">
@@ -587,11 +653,19 @@
       <c r="H6" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I6" s="4">
+        <f t="shared" si="0"/>
+        <v>-5.2380000000000005E-3</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="1"/>
+        <v>1.4055723247133176E-2</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>27.5</v>
       </c>
@@ -601,13 +675,13 @@
       <c r="C7" s="4">
         <v>2.65</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="D7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="4">
         <v>-0.158</v>
       </c>
       <c r="G7" s="4">
@@ -616,11 +690,19 @@
       <c r="H7" s="4">
         <v>0.02</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I7" s="4">
+        <f t="shared" si="0"/>
+        <v>-8.5319999999999997E-3</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="1"/>
+        <v>1.8088808031487314E-2</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>27.5</v>
       </c>
@@ -630,13 +712,13 @@
       <c r="C8" s="4">
         <v>3.07</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="D8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="4">
         <v>-7.8E-2</v>
       </c>
       <c r="G8" s="4">
@@ -645,11 +727,19 @@
       <c r="H8" s="4">
         <v>1.9E-2</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I8" s="4">
+        <f t="shared" si="0"/>
+        <v>-4.2119999999999996E-3</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="1"/>
+        <v>1.852725171200521E-2</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>27.5</v>
       </c>
@@ -659,13 +749,13 @@
       <c r="C9" s="4">
         <v>3.86</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="4">
         <v>0.14599999999999999</v>
       </c>
       <c r="G9" s="4">
@@ -674,11 +764,19 @@
       <c r="H9" s="4">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I9" s="4">
+        <f t="shared" si="0"/>
+        <v>7.8839999999999986E-3</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="1"/>
+        <v>5.1398857419207286E-2</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>27.5</v>
       </c>
@@ -688,13 +786,13 @@
       <c r="C10" s="4">
         <v>5.25</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="5">
+      <c r="D10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="4">
         <v>-0.14899999999999999</v>
       </c>
       <c r="G10" s="4">
@@ -703,8 +801,16 @@
       <c r="H10" s="4">
         <v>0.10299999999999999</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>11</v>
+      <c r="I10" s="4">
+        <f t="shared" si="0"/>
+        <v>-8.0459999999999993E-3</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="1"/>
+        <v>0.10268525641006113</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
